--- a/results/supervised_results.xlsx
+++ b/results/supervised_results.xlsx
@@ -1,50 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakobludwig/Documents/Uni/8_SoSe_20/1_Bachelorarbeit/Implementation/Sandbox/TestBench/results/tables_templates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD398BF4-DBCD-2E48-9F81-F664279E1272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="20360" windowWidth="38400" xWindow="28800" yWindow="460"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="20360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>timestamp of execution</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>include/exclude</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>mean_squared_error</t>
+  </si>
+  <si>
+    <t>hardware</t>
+  </si>
+  <si>
+    <t>cpu time train</t>
+  </si>
+  <si>
+    <t>cpu time test</t>
+  </si>
+  <si>
+    <t>shape after preproc.</t>
+  </si>
+  <si>
+    <t>memory (in MB)</t>
+  </si>
+  <si>
+    <t>cpu time total</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
-      <color theme="4"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -60,85 +115,26 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Standard" xfId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -438,114 +434,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0" zoomScale="98">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="98" workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="26.1640625"/>
-    <col customWidth="1" max="2" min="2" width="39.6640625"/>
-    <col customWidth="1" max="3" min="3" width="20.5"/>
-    <col customWidth="1" max="4" min="4" width="5.6640625"/>
-    <col customWidth="1" max="5" min="5" width="26.83203125"/>
-    <col customWidth="1" max="6" min="6" width="21.5"/>
-    <col customWidth="1" max="8" min="7" width="21"/>
-    <col customWidth="1" max="9" min="9" width="16.5"/>
-    <col customWidth="1" max="10" min="10" width="14.6640625"/>
-    <col customWidth="1" max="11" min="11" width="17.5"/>
-    <col customWidth="1" max="12" min="12" width="20.6640625"/>
-    <col customWidth="1" max="13" min="13" width="28.5"/>
-    <col customWidth="1" max="14" min="14" width="25"/>
-    <col customWidth="1" max="15" min="15" width="117.6640625"/>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
+    <col min="13" max="13" width="28.5" customWidth="1"/>
+    <col min="14" max="14" width="25" customWidth="1"/>
+    <col min="15" max="15" width="117.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>timestamp of execution</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>dataset</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>algorithm</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>run</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>parameters</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>features</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>include/exclude</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>shape after preproc.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>cpu time train</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>cpu time test</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>cpu time total</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>memory (in MB)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>mean_squared_error</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>hardware</t>
-        </is>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.787401575" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.787401575"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>